--- a/missing_articles.xlsx
+++ b/missing_articles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A68"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,469 +443,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>J2660_248</t>
+          <t>HW6726_S65</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>J8568_X88</t>
+          <t>HW6726_Y53</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>J9049_X88</t>
+          <t>HW6726_Y64</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>K7642_608</t>
+          <t>HW9676_129</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>K7642_X88</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>K9725_146</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>K9725_X88</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>K9746_X88</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>K9748_608</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>K9749_X83</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>K9749_X88</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>K9751_X86</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>K9751_X90</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>K9756_X88</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>M1588_Y54</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>M1588_Y58</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>M1588_Y61</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>M1588_Y63</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>M1588_Y64</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>M1588_Y65</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>M3519_146</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>M3519_X83</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>M3519_X88</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>M3519_X90</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>M3574_146</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>M3574_X88</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>M3600_Q46</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>M3600_Y53</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>M3600_Y54</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>M3600_Y56</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>M3600_Y58</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>M3600_Y59</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>M3600_Y60</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>M3600_Y61</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>M3600_Y62</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>M3600_Y63</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>M3600_Y64</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>M3600_Y65</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>M3600_Y66</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>M4580_248</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>M4580_X88</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>M4580_X90</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>M6000_V73</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>M6000_Y48</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>M6574_X86</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>M6581_608</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>M7_146</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>M7535_X88</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>M7535_X90</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>M9624_353</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>M9624_X88</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>M9851_760</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>M9852_X88</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>M9886_608</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>M9895_X88</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>M9896_608</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>M9898_X88</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>M9900_760</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>M9905_608</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>M9908_129</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>M9908_146</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>M9910_X88</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>M9911_102</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>S8508_597</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>S8508_X83</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>S8508_X89</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>S8508_X90</t>
+          <t>HW9676_146</t>
         </is>
       </c>
     </row>

--- a/missing_articles.xlsx
+++ b/missing_articles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,35 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HW6726_S65</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>HW6726_Y53</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HW6726_Y64</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HW9676_129</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HW9676_146</t>
+          <t>M6000_V73</t>
         </is>
       </c>
     </row>

--- a/missing_articles.xlsx
+++ b/missing_articles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,13 +440,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>M6000_V73</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/missing_articles.xlsx
+++ b/missing_articles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,28 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Missing Articles</t>
+          <t>Articles no trobats</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HW6726_V84</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>M6000_350</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>J8546_P96</t>
         </is>
       </c>
     </row>
